--- a/DATA_Agro_seguimiento_27_11.xlsx
+++ b/DATA_Agro_seguimiento_27_11.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Claudia_G\Dropbox\Diseño DATA's\DATA-AGRO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC40D193-C979-4B0C-BC7A-CF985EA8799A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F72316CB-03C2-4EFE-8004-7A7C2A229E29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{4C11E770-CDEF-4BE2-A1B8-ADED6EF3E895}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="152">
   <si>
     <t>AGROSTAT</t>
   </si>
@@ -405,181 +405,109 @@
     <t>Listo</t>
   </si>
   <si>
-    <t>Precios</t>
-  </si>
-  <si>
-    <t>Exportaciones e importanciones</t>
-  </si>
-  <si>
-    <t>Empleo</t>
-  </si>
-  <si>
-    <t>Estadísticas Cultivos Agrícolas</t>
-  </si>
-  <si>
-    <t>Estadísticas Cultivos Perennes</t>
-  </si>
-  <si>
-    <t>Variedades</t>
-  </si>
-  <si>
-    <t>Mercados mayoristas</t>
-  </si>
-  <si>
-    <t>Evolución histórica</t>
-  </si>
-  <si>
-    <t>Riego</t>
-  </si>
-  <si>
-    <t>Agroindustria</t>
-  </si>
-  <si>
-    <t>Estadísticas cultivos anuales</t>
-  </si>
-  <si>
-    <t>Estadísticas cultivos de Uva (Vitis vinífera)</t>
-  </si>
-  <si>
-    <t>Estadísticas cultivo de cereales</t>
-  </si>
-  <si>
     <t>N°2</t>
   </si>
   <si>
-    <t>Estadísticas cultivos hortalizas</t>
-  </si>
-  <si>
-    <t>Estadísticas cultivo de cítrics</t>
-  </si>
-  <si>
-    <t>Estadísticas cultivos de berries</t>
-  </si>
-  <si>
-    <t>Estadísticas frutos de pepita</t>
-  </si>
-  <si>
-    <t>Estadísticas frutos secos y oleaginosos</t>
-  </si>
-  <si>
-    <t>Estadísticas frutos de hueso (carozo)</t>
-  </si>
-  <si>
-    <t>Todas</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/sh/dd6nfh23uneobia/AADwkRqNg34runSAEsUhWi65a?dl=0</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/sh/dd6nfh23uneobia/AADwkRqNg34runSAEsUhWi65a?dl=1</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/sh/dd6nfh23uneobia/AADwkRqNg34runSAEsUhWi65a?dl=2</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/sh/dd6nfh23uneobia/AADwkRqNg34runSAEsUhWi65a?dl=3</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/sh/dd6nfh23uneobia/AADwkRqNg34runSAEsUhWi65a?dl=4</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/sh/gqg496268fib1zo/AACrYYFwBYhJdW_vofpZNFQ3a?dl=0</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/sh/gqg496268fib1zo/AACrYYFwBYhJdW_vofpZNFQ3a?dl=1</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/sh/gqg496268fib1zo/AACrYYFwBYhJdW_vofpZNFQ3a?dl=2</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/sh/gqg496268fib1zo/AACrYYFwBYhJdW_vofpZNFQ3a?dl=3</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/sh/gqg496268fib1zo/AACrYYFwBYhJdW_vofpZNFQ3a?dl=4</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/sh/gqg496268fib1zo/AACrYYFwBYhJdW_vofpZNFQ3a?dl=5</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/sh/gqg496268fib1zo/AACrYYFwBYhJdW_vofpZNFQ3a?dl=6</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/sh/gqg496268fib1zo/AACrYYFwBYhJdW_vofpZNFQ3a?dl=7</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/sh/e8ewb2nqhou9ybh/AAAZl1VVbLL9iqRaxkiF5Ddfa?dl=0</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/sh/e8ewb2nqhou9ybh/AAAZl1VVbLL9iqRaxkiF5Ddfa?dl=1</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/sh/e8ewb2nqhou9ybh/AAAZl1VVbLL9iqRaxkiF5Ddfa?dl=2</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/sh/e8ewb2nqhou9ybh/AAAZl1VVbLL9iqRaxkiF5Ddfa?dl=3</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/sh/e8ewb2nqhou9ybh/AAAZl1VVbLL9iqRaxkiF5Ddfa?dl=4</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/sh/e8ewb2nqhou9ybh/AAAZl1VVbLL9iqRaxkiF5Ddfa?dl=5</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/sh/e8ewb2nqhou9ybh/AAAZl1VVbLL9iqRaxkiF5Ddfa?dl=6</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/sh/e8ewb2nqhou9ybh/AAAZl1VVbLL9iqRaxkiF5Ddfa?dl=9</t>
-  </si>
-  <si>
-    <t>Estadísticas Producción pecuaria</t>
-  </si>
-  <si>
-    <t>Estadísticas Porcino</t>
-  </si>
-  <si>
-    <t>Estadísticas Ovinos</t>
-  </si>
-  <si>
-    <t>Estadísticas Bovinos de leche</t>
-  </si>
-  <si>
-    <t>Estadísticas Bovino de carne</t>
-  </si>
-  <si>
-    <t>Estadísticas Aves</t>
-  </si>
-  <si>
-    <t>Industria láctea menor</t>
-  </si>
-  <si>
-    <t>Estadísticas  Incendios forestales</t>
-  </si>
-  <si>
-    <t>Indices para monitoreo suelo planta agua</t>
-  </si>
-  <si>
     <t>Monitoreo de Glaciares (aplicación monitoreo de glaciares</t>
   </si>
   <si>
     <t>Monitoreo de pantanos y humedales (aplicación para monitoreo de pantanos y humedales)</t>
   </si>
   <si>
-    <t>AgroClima (Applicación de mapas climáticos: vientos, T°, evapotranspiración,  distritos climático, etc</t>
-  </si>
-  <si>
-    <t>Indices monitoreo glaciares</t>
-  </si>
-  <si>
-    <t>Indices monitoreo humedales</t>
-  </si>
-  <si>
-    <t>Mapas variables climáticas</t>
-  </si>
-  <si>
-    <t>Estadísticas bosques</t>
-  </si>
-  <si>
-    <t>Estadísticas Industria forestal</t>
+    <t>Data incendios</t>
+  </si>
+  <si>
+    <t>Data Cultivos Agrícolas General</t>
+  </si>
+  <si>
+    <t>Data Cultivo de Papa</t>
+  </si>
+  <si>
+    <t>Data Frutas</t>
+  </si>
+  <si>
+    <t>Data Cultivos anuales</t>
+  </si>
+  <si>
+    <t>Data Uva</t>
+  </si>
+  <si>
+    <t>Data Cítricos</t>
+  </si>
+  <si>
+    <t>Data Berries</t>
+  </si>
+  <si>
+    <t>Data Cereales</t>
+  </si>
+  <si>
+    <t>Data Pomáceas</t>
+  </si>
+  <si>
+    <t>Data Oleaginosas y Frutos secos</t>
+  </si>
+  <si>
+    <t>DATA-GANADERO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Ganadero General </t>
+  </si>
+  <si>
+    <t>Data Bovinos</t>
+  </si>
+  <si>
+    <t>DataOvinos</t>
+  </si>
+  <si>
+    <t>DataPorcinos</t>
+  </si>
+  <si>
+    <t>DATA-FORESTAL</t>
+  </si>
+  <si>
+    <t>16a</t>
+  </si>
+  <si>
+    <t>16b</t>
+  </si>
+  <si>
+    <t>16c</t>
+  </si>
+  <si>
+    <t>Data Forestal general</t>
+  </si>
+  <si>
+    <t>Data Bosque</t>
+  </si>
+  <si>
+    <t>Data Industria Forestal</t>
+  </si>
+  <si>
+    <t>Data Aves</t>
+  </si>
+  <si>
+    <t>DataLeche</t>
+  </si>
+  <si>
+    <t>ESTADÍSTICAS GANADERAS</t>
+  </si>
+  <si>
+    <t>FORESTSTAT</t>
+  </si>
+  <si>
+    <t>DATA Fertilizantes</t>
+  </si>
+  <si>
+    <t>AgroClima (Applicación de mapas climáticos: vientos, T°, evapotranspiración,  distritos climático, etc)</t>
+  </si>
+  <si>
+    <t>DATA mecácnica agrícola</t>
+  </si>
+  <si>
+    <t>DATA Riego</t>
+  </si>
+  <si>
+    <t>Omar O.</t>
   </si>
 </sst>
 </file>
@@ -671,7 +599,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -716,15 +644,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="60">
+  <dxfs count="59">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1040,12 +965,196 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
+      <alignment vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
       <alignment vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1066,9 +1175,9 @@
         <scheme val="minor"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+          <bgColor theme="3"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1146,7 +1255,7 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <alignment vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1171,7 +1280,7 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1221,7 +1330,7 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <alignment vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1271,7 +1380,57 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1300,265 +1459,6 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1575,9 +1475,9 @@
         <scheme val="minor"/>
       </font>
       <fill>
-        <patternFill patternType="solid">
+        <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor theme="3"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1704,16 +1604,16 @@
   </dxfs>
   <tableStyles count="3" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Estilo de segmentación de datos 1 2 2" pivot="0" table="0" count="3" xr9:uid="{C78DE6DC-34ED-4C64-A757-3B2D12339A00}">
-      <tableStyleElement type="wholeTable" dxfId="59"/>
-      <tableStyleElement type="headerRow" dxfId="58"/>
+      <tableStyleElement type="wholeTable" dxfId="58"/>
+      <tableStyleElement type="headerRow" dxfId="57"/>
     </tableStyle>
     <tableStyle name="Estilo de segmentación de datos 2" pivot="0" table="0" count="3" xr9:uid="{AA78FA1F-0F69-43F9-8330-69397F64B35D}">
-      <tableStyleElement type="wholeTable" dxfId="57"/>
-      <tableStyleElement type="headerRow" dxfId="56"/>
+      <tableStyleElement type="wholeTable" dxfId="56"/>
+      <tableStyleElement type="headerRow" dxfId="55"/>
     </tableStyle>
     <tableStyle name="Estilo de segmentación de datos 3" pivot="0" table="0" count="3" xr9:uid="{3C8E5722-84BC-4297-935B-F67FD2CFD813}">
-      <tableStyleElement type="wholeTable" dxfId="55"/>
-      <tableStyleElement type="headerRow" dxfId="54"/>
+      <tableStyleElement type="wholeTable" dxfId="54"/>
+      <tableStyleElement type="headerRow" dxfId="53"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1787,13 +1687,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>528637</xdr:colOff>
+      <xdr:colOff>65616</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>79374</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1416579</xdr:colOff>
+      <xdr:colOff>953558</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>123824</xdr:rowOff>
     </xdr:to>
@@ -1868,13 +1768,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1934104</xdr:colOff>
+      <xdr:colOff>1471083</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>49213</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>362479</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3127374</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>144462</xdr:rowOff>
     </xdr:to>
@@ -2171,39 +2071,38 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A13944F0-234A-4503-A7F2-6C4FBEBEEC61}" name="Tabla2" displayName="Tabla2" ref="B10:L70" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
-  <autoFilter ref="B10:L70" xr:uid="{45BD2C9C-AD7C-42F0-B565-2635170566FB}"/>
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{9FCEE587-D097-4CD5-9E23-CBA7CF333ED6}" name="N°" dataDxfId="41"/>
-    <tableColumn id="10" xr3:uid="{7ECF367C-B617-4478-BDCD-CEDB3DF56165}" name="DATA " dataDxfId="40"/>
-    <tableColumn id="2" xr3:uid="{C7508CA6-6908-4EB2-99B2-30F465983231}" name="Componente" dataDxfId="39"/>
-    <tableColumn id="11" xr3:uid="{A4405FF9-3C5B-41B0-8360-A19E3D935BB8}" name="N°2" dataDxfId="38"/>
-    <tableColumn id="3" xr3:uid="{684387D4-D291-47CB-BC9B-7D57DDD2081F}" name="Producto" dataDxfId="37"/>
-    <tableColumn id="4" xr3:uid="{1B4E8AE1-4CE5-4F74-ADD0-D0E3E6D23604}" name="Estado Producto" dataDxfId="36"/>
-    <tableColumn id="5" xr3:uid="{9A8F0F03-343A-4F94-96C3-38EB06332471}" name="Variable 1" dataDxfId="35"/>
-    <tableColumn id="9" xr3:uid="{1CF6EDAF-1AA7-40C8-ACC8-74CB35C7107A}" name="Variable 2" dataDxfId="34"/>
-    <tableColumn id="6" xr3:uid="{991F33BF-EF72-4C56-9F4C-F1C05DD84244}" name="Estado Variables" dataDxfId="33"/>
-    <tableColumn id="7" xr3:uid="{1F292927-35D2-4B74-AF9F-93297B2E869A}" name="Lider" dataDxfId="32"/>
-    <tableColumn id="8" xr3:uid="{93375C1C-18F6-4B62-931B-CD0A62CA1269}" name="Columna1" dataDxfId="31"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A13944F0-234A-4503-A7F2-6C4FBEBEEC61}" name="Tabla2" displayName="Tabla2" ref="B10:K38" totalsRowShown="0" headerRowDxfId="52" dataDxfId="51">
+  <autoFilter ref="B10:K38" xr:uid="{45BD2C9C-AD7C-42F0-B565-2635170566FB}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{9FCEE587-D097-4CD5-9E23-CBA7CF333ED6}" name="N°" dataDxfId="50"/>
+    <tableColumn id="10" xr3:uid="{7ECF367C-B617-4478-BDCD-CEDB3DF56165}" name="DATA " dataDxfId="49"/>
+    <tableColumn id="2" xr3:uid="{C7508CA6-6908-4EB2-99B2-30F465983231}" name="Componente" dataDxfId="48"/>
+    <tableColumn id="11" xr3:uid="{A4405FF9-3C5B-41B0-8360-A19E3D935BB8}" name="N°2" dataDxfId="47"/>
+    <tableColumn id="3" xr3:uid="{684387D4-D291-47CB-BC9B-7D57DDD2081F}" name="Producto" dataDxfId="46"/>
+    <tableColumn id="4" xr3:uid="{1B4E8AE1-4CE5-4F74-ADD0-D0E3E6D23604}" name="Estado Producto" dataDxfId="45"/>
+    <tableColumn id="5" xr3:uid="{9A8F0F03-343A-4F94-96C3-38EB06332471}" name="Variable 1" dataDxfId="44"/>
+    <tableColumn id="9" xr3:uid="{1CF6EDAF-1AA7-40C8-ACC8-74CB35C7107A}" name="Variable 2" dataDxfId="43"/>
+    <tableColumn id="6" xr3:uid="{991F33BF-EF72-4C56-9F4C-F1C05DD84244}" name="Estado Variables" dataDxfId="42"/>
+    <tableColumn id="7" xr3:uid="{1F292927-35D2-4B74-AF9F-93297B2E869A}" name="Lider" dataDxfId="41"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9BD45DEA-83D5-4427-A1F8-E327D64B59A2}" name="Tabla23" displayName="Tabla23" ref="B10:K83" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9BD45DEA-83D5-4427-A1F8-E327D64B59A2}" name="Tabla23" displayName="Tabla23" ref="B10:K83" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
   <autoFilter ref="B10:K83" xr:uid="{45BD2C9C-AD7C-42F0-B565-2635170566FB}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{904A3A15-330D-4D48-AEA6-B88C65A60DBE}" name="N°" dataDxfId="51"/>
-    <tableColumn id="10" xr3:uid="{DA701BB4-6B7A-421A-9D5A-63E1AC2EC7DD}" name="DATA " dataDxfId="50"/>
-    <tableColumn id="2" xr3:uid="{287CD33D-69AC-4B05-9760-998F90DEAAD6}" name="Componente" dataDxfId="49"/>
-    <tableColumn id="3" xr3:uid="{1C95D899-0ACC-4EF0-932A-77AC4A1EB0FF}" name="Producto" dataDxfId="48"/>
-    <tableColumn id="4" xr3:uid="{5B515CD5-F4DE-4525-BBB3-9B3A3F0A63E3}" name="Estado Producto" dataDxfId="47"/>
-    <tableColumn id="5" xr3:uid="{D67BFF10-E67E-4AD4-AA0A-A87D23707426}" name="Variable 1" dataDxfId="46"/>
-    <tableColumn id="9" xr3:uid="{71D6458F-B786-442F-82C1-C12671FF5C4A}" name="Variable 2" dataDxfId="45"/>
-    <tableColumn id="6" xr3:uid="{DD4E2D05-5ED4-42B7-B2AB-AFB448C37692}" name="Estado Variables" dataDxfId="44"/>
-    <tableColumn id="7" xr3:uid="{D84C7623-4EC2-4CE7-8F2E-8B3A6FF4B03A}" name="Lider" dataDxfId="43"/>
-    <tableColumn id="8" xr3:uid="{D2573CB1-A7A0-479C-80C4-D36D632C7725}" name="Columna1" dataDxfId="42"/>
+    <tableColumn id="1" xr3:uid="{904A3A15-330D-4D48-AEA6-B88C65A60DBE}" name="N°" dataDxfId="38"/>
+    <tableColumn id="10" xr3:uid="{DA701BB4-6B7A-421A-9D5A-63E1AC2EC7DD}" name="DATA " dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{287CD33D-69AC-4B05-9760-998F90DEAAD6}" name="Componente" dataDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{1C95D899-0ACC-4EF0-932A-77AC4A1EB0FF}" name="Producto" dataDxfId="35"/>
+    <tableColumn id="4" xr3:uid="{5B515CD5-F4DE-4525-BBB3-9B3A3F0A63E3}" name="Estado Producto" dataDxfId="34"/>
+    <tableColumn id="5" xr3:uid="{D67BFF10-E67E-4AD4-AA0A-A87D23707426}" name="Variable 1" dataDxfId="33"/>
+    <tableColumn id="9" xr3:uid="{71D6458F-B786-442F-82C1-C12671FF5C4A}" name="Variable 2" dataDxfId="32"/>
+    <tableColumn id="6" xr3:uid="{DD4E2D05-5ED4-42B7-B2AB-AFB448C37692}" name="Estado Variables" dataDxfId="31"/>
+    <tableColumn id="7" xr3:uid="{D84C7623-4EC2-4CE7-8F2E-8B3A6FF4B03A}" name="Lider" dataDxfId="30"/>
+    <tableColumn id="8" xr3:uid="{D2573CB1-A7A0-479C-80C4-D36D632C7725}" name="Columna1" dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2506,17 +2405,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CB3C2C0-1C42-4C1E-9F72-A328D2452D47}">
-  <dimension ref="B10:L70"/>
+  <dimension ref="B10:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="48" zoomScaleNormal="48" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45:H50"/>
+      <selection activeCell="K35" sqref="K35:K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7265625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.7265625" style="6" customWidth="1"/>
     <col min="2" max="2" width="5.54296875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.453125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="23.08984375" style="6" customWidth="1"/>
     <col min="4" max="4" width="17.6328125" style="6" customWidth="1"/>
     <col min="5" max="5" width="8.90625" style="6" customWidth="1"/>
     <col min="6" max="6" width="46.1796875" style="5" customWidth="1"/>
@@ -2525,11 +2424,10 @@
     <col min="9" max="9" width="52.7265625" style="6" customWidth="1"/>
     <col min="10" max="10" width="15.54296875" style="6" customWidth="1"/>
     <col min="11" max="11" width="12.54296875" style="6" customWidth="1"/>
-    <col min="12" max="12" width="55" style="6" customWidth="1"/>
-    <col min="13" max="16384" width="10.7265625" style="6"/>
+    <col min="12" max="16384" width="10.7265625" style="6"/>
   </cols>
   <sheetData>
-    <row r="10" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B10" s="12" t="s">
         <v>18</v>
       </c>
@@ -2540,7 +2438,7 @@
         <v>106</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>19</v>
@@ -2560,13 +2458,10 @@
       <c r="K10" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="L10" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="13">
-        <v>16</v>
+    </row>
+    <row r="11" spans="2:11" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="13" t="s">
+        <v>137</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>108</v>
@@ -2578,14 +2473,12 @@
         <v>1</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G11" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="H11" s="14" t="s">
-        <v>30</v>
-      </c>
+      <c r="H11" s="14"/>
       <c r="I11" s="14"/>
       <c r="J11" s="11" t="s">
         <v>1</v>
@@ -2593,13 +2486,10 @@
       <c r="K11" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="L11" s="11" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="13">
-        <v>16</v>
+    </row>
+    <row r="12" spans="2:11" ht="22" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="13" t="s">
+        <v>137</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>108</v>
@@ -2608,29 +2498,26 @@
         <v>0</v>
       </c>
       <c r="E12" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G12" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="H12" s="11" t="s">
-        <v>29</v>
-      </c>
+      <c r="H12" s="11"/>
       <c r="I12" s="11"/>
       <c r="J12" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" ht="22" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="13">
-        <v>16</v>
+      <c r="K12" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="13" t="s">
+        <v>137</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>108</v>
@@ -2639,29 +2526,26 @@
         <v>0</v>
       </c>
       <c r="E13" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="G13" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="H13" s="11" t="s">
-        <v>117</v>
-      </c>
+      <c r="H13" s="11"/>
       <c r="I13" s="11"/>
       <c r="J13" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="13">
-        <v>17</v>
+      <c r="K13" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="13" t="s">
+        <v>137</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>108</v>
@@ -2670,29 +2554,26 @@
         <v>0</v>
       </c>
       <c r="E14" s="11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>119</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H14" s="11"/>
       <c r="I14" s="11"/>
       <c r="J14" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="13">
-        <v>16</v>
+        <v>6</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B15" s="13" t="s">
+        <v>137</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>108</v>
@@ -2701,29 +2582,26 @@
         <v>0</v>
       </c>
       <c r="E15" s="11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>118</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H15" s="11"/>
       <c r="I15" s="11"/>
       <c r="J15" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" ht="26" x14ac:dyDescent="0.3">
-      <c r="B16" s="13">
-        <v>16</v>
+        <v>6</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B16" s="13" t="s">
+        <v>137</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>108</v>
@@ -2732,29 +2610,26 @@
         <v>0</v>
       </c>
       <c r="E16" s="11">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>30</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H16" s="11"/>
       <c r="I16" s="11"/>
       <c r="J16" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" ht="26" x14ac:dyDescent="0.3">
-      <c r="B17" s="13">
-        <v>16</v>
+        <v>6</v>
+      </c>
+      <c r="K16" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B17" s="13" t="s">
+        <v>137</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>108</v>
@@ -2763,29 +2638,26 @@
         <v>0</v>
       </c>
       <c r="E17" s="11">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>122</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H17" s="11"/>
       <c r="I17" s="11"/>
       <c r="J17" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" ht="26" x14ac:dyDescent="0.3">
-      <c r="B18" s="13">
-        <v>16</v>
+        <v>6</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B18" s="13" t="s">
+        <v>137</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>108</v>
@@ -2794,29 +2666,26 @@
         <v>0</v>
       </c>
       <c r="E18" s="11">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>118</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H18" s="11"/>
       <c r="I18" s="11"/>
       <c r="J18" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" ht="26" x14ac:dyDescent="0.3">
-      <c r="B19" s="13">
-        <v>16</v>
+        <v>6</v>
+      </c>
+      <c r="K18" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B19" s="13" t="s">
+        <v>137</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>108</v>
@@ -2825,29 +2694,26 @@
         <v>0</v>
       </c>
       <c r="E19" s="11">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>123</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H19" s="11"/>
       <c r="I19" s="11"/>
       <c r="J19" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" ht="26" x14ac:dyDescent="0.3">
-      <c r="B20" s="13">
-        <v>16</v>
+        <v>6</v>
+      </c>
+      <c r="K19" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B20" s="13" t="s">
+        <v>137</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>108</v>
@@ -2856,337 +2722,304 @@
         <v>0</v>
       </c>
       <c r="E20" s="11">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>119</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H20" s="11"/>
       <c r="I20" s="11"/>
       <c r="J20" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" ht="26" x14ac:dyDescent="0.3">
-      <c r="B21" s="13">
-        <v>16</v>
+        <v>6</v>
+      </c>
+      <c r="K20" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" ht="26" x14ac:dyDescent="0.3">
+      <c r="B21" s="13" t="s">
+        <v>138</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="E21" s="11">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="H21" s="11" t="s">
-        <v>124</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="H21" s="11"/>
       <c r="I21" s="11"/>
       <c r="J21" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" ht="26" x14ac:dyDescent="0.3">
-      <c r="B22" s="13">
-        <v>16</v>
+        <v>6</v>
+      </c>
+      <c r="K21" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" ht="26" x14ac:dyDescent="0.3">
+      <c r="B22" s="13" t="s">
+        <v>138</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="E22" s="11">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>125</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="H22" s="11"/>
       <c r="I22" s="11"/>
       <c r="J22" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" ht="26" x14ac:dyDescent="0.3">
-      <c r="B23" s="13">
-        <v>16</v>
+        <v>6</v>
+      </c>
+      <c r="K22" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" ht="26" x14ac:dyDescent="0.3">
+      <c r="B23" s="13" t="s">
+        <v>138</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="E23" s="11">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="H23" s="11" t="s">
-        <v>126</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="H23" s="15"/>
       <c r="I23" s="11"/>
       <c r="J23" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" ht="26" x14ac:dyDescent="0.3">
-      <c r="B24" s="13">
-        <v>16</v>
+        <v>6</v>
+      </c>
+      <c r="K23" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" ht="26" x14ac:dyDescent="0.3">
+      <c r="B24" s="13" t="s">
+        <v>138</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="E24" s="11">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="H24" s="15" t="s">
-        <v>30</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="H24" s="15"/>
       <c r="I24" s="11"/>
       <c r="J24" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" ht="26" x14ac:dyDescent="0.3">
-      <c r="B25" s="13">
-        <v>16</v>
+        <v>6</v>
+      </c>
+      <c r="K24" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" ht="26" x14ac:dyDescent="0.3">
+      <c r="B25" s="13" t="s">
+        <v>138</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="E25" s="11">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="H25" s="15" t="s">
-        <v>117</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="H25" s="15"/>
       <c r="I25" s="11"/>
       <c r="J25" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" ht="26" x14ac:dyDescent="0.3">
-      <c r="B26" s="13">
-        <v>16</v>
+        <v>6</v>
+      </c>
+      <c r="K25" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" ht="26" x14ac:dyDescent="0.3">
+      <c r="B26" s="13" t="s">
+        <v>138</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="E26" s="11">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="H26" s="15" t="s">
-        <v>119</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="H26" s="15"/>
       <c r="I26" s="11"/>
       <c r="J26" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" ht="26" x14ac:dyDescent="0.3">
-      <c r="B27" s="13">
-        <v>16</v>
+        <v>6</v>
+      </c>
+      <c r="K26" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B27" s="13" t="s">
+        <v>139</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="E27" s="11">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="H27" s="15" t="s">
-        <v>118</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="H27" s="15"/>
       <c r="I27" s="11"/>
       <c r="J27" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12" ht="26" x14ac:dyDescent="0.3">
-      <c r="B28" s="13">
-        <v>16</v>
+        <v>6</v>
+      </c>
+      <c r="K27" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B28" s="13" t="s">
+        <v>139</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="E28" s="11">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="H28" s="15" t="s">
-        <v>124</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="H28" s="15"/>
       <c r="I28" s="11"/>
       <c r="J28" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" ht="26" x14ac:dyDescent="0.3">
-      <c r="B29" s="13">
-        <v>16</v>
+        <v>6</v>
+      </c>
+      <c r="K28" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B29" s="13" t="s">
+        <v>139</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="E29" s="11">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="H29" s="15" t="s">
-        <v>126</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="H29" s="15"/>
       <c r="I29" s="11"/>
       <c r="J29" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12" ht="26" x14ac:dyDescent="0.3">
-      <c r="B30" s="13">
-        <v>16</v>
+        <v>6</v>
+      </c>
+      <c r="K29" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="13" t="s">
+        <v>139</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="E30" s="11">
+        <v>20</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K30" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F30" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="G30" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="H30" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" ht="26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="2:11" ht="26" x14ac:dyDescent="0.3">
       <c r="B31" s="13">
         <v>16</v>
       </c>
@@ -3194,30 +3027,27 @@
         <v>108</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="E31" s="11">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>127</v>
+        <v>88</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="H31" s="15" t="s">
-        <v>137</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="H31" s="11"/>
       <c r="I31" s="11"/>
       <c r="J31" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="K31" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="13">
         <v>16</v>
       </c>
@@ -3225,28 +3055,27 @@
         <v>108</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="E32" s="11">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="G32" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="H32" s="15" t="s">
-        <v>137</v>
-      </c>
+      <c r="H32" s="11"/>
       <c r="I32" s="11"/>
       <c r="J32" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+      <c r="K32" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" ht="26" x14ac:dyDescent="0.3">
       <c r="B33" s="13">
         <v>16</v>
       </c>
@@ -3254,28 +3083,27 @@
         <v>108</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="E33" s="11">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="G33" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="H33" s="15" t="s">
-        <v>137</v>
-      </c>
+      <c r="H33" s="11"/>
       <c r="I33" s="11"/>
       <c r="J33" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+      <c r="K33" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" ht="26" x14ac:dyDescent="0.3">
       <c r="B34" s="13">
         <v>16</v>
       </c>
@@ -3283,28 +3111,27 @@
         <v>108</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="E34" s="11">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="G34" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="H34" s="15" t="s">
-        <v>137</v>
-      </c>
+      <c r="H34" s="11"/>
       <c r="I34" s="11"/>
       <c r="J34" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+      <c r="K34" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="13">
         <v>16</v>
       </c>
@@ -3312,28 +3139,27 @@
         <v>108</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="E35" s="11">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="H35" s="15" t="s">
-        <v>137</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="H35" s="11"/>
       <c r="I35" s="11"/>
       <c r="J35" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="K35" s="11"/>
-      <c r="L35" s="11"/>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+      <c r="K35" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B36" s="13">
         <v>16</v>
       </c>
@@ -3341,28 +3167,27 @@
         <v>108</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="E36" s="11">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="H36" s="15" t="s">
-        <v>137</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="H36" s="11"/>
       <c r="I36" s="11"/>
       <c r="J36" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="K36" s="11"/>
-      <c r="L36" s="11"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+      <c r="K36" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B37" s="13">
         <v>16</v>
       </c>
@@ -3370,987 +3195,41 @@
         <v>108</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="E37" s="11">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="H37" s="15" t="s">
-        <v>137</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="H37" s="11"/>
       <c r="I37" s="11"/>
       <c r="J37" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="K37" s="11"/>
-      <c r="L37" s="11"/>
-    </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B38" s="13">
-        <v>16</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E38" s="11">
-        <v>11</v>
-      </c>
-      <c r="F38" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="G38" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="H38" s="15" t="s">
-        <v>137</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="K37" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
       <c r="I38" s="11"/>
-      <c r="J38" s="11" t="s">
-        <v>1</v>
-      </c>
+      <c r="J38" s="11"/>
       <c r="K38" s="11"/>
-      <c r="L38" s="11"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B39" s="13">
-        <v>16</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E39" s="11">
-        <v>12</v>
-      </c>
-      <c r="F39" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="G39" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="H39" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="I39" s="11"/>
-      <c r="J39" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="K39" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="L39" s="11"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B40" s="13">
-        <v>16</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E40" s="11">
-        <v>13</v>
-      </c>
-      <c r="F40" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="G40" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="H40" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="I40" s="11"/>
-      <c r="J40" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="K40" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="L40" s="11"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B41" s="13">
-        <v>16</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E41" s="11">
-        <v>14</v>
-      </c>
-      <c r="F41" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="G41" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="H41" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="I41" s="11"/>
-      <c r="J41" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="K41" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="L41" s="11"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B42" s="13">
-        <v>16</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E42" s="11">
-        <v>15</v>
-      </c>
-      <c r="F42" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="G42" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="H42" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="I42" s="11"/>
-      <c r="J42" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="K42" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="L42" s="11"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B43" s="13">
-        <v>16</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E43" s="11">
-        <v>16</v>
-      </c>
-      <c r="F43" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="G43" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="H43" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="I43" s="11"/>
-      <c r="J43" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="K43" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="L43" s="11"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B44" s="13">
-        <v>16</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="D44" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E44" s="11">
-        <v>17</v>
-      </c>
-      <c r="F44" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="G44" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="H44" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="I44" s="11"/>
-      <c r="J44" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="K44" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="L44" s="11"/>
-    </row>
-    <row r="45" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="13">
-        <v>16</v>
-      </c>
-      <c r="C45" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="D45" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E45" s="11">
-        <v>18</v>
-      </c>
-      <c r="F45" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="G45" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="H45" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="I45" s="11"/>
-      <c r="J45" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="K45" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="L45" s="11"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B46" s="13">
-        <v>16</v>
-      </c>
-      <c r="C46" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E46" s="11">
-        <v>19</v>
-      </c>
-      <c r="F46" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="G46" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="H46" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="I46" s="11"/>
-      <c r="J46" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="K46" s="11"/>
-      <c r="L46" s="11"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B47" s="13">
-        <v>16</v>
-      </c>
-      <c r="C47" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="D47" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E47" s="11">
-        <v>20</v>
-      </c>
-      <c r="F47" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="G47" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="H47" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="I47" s="11"/>
-      <c r="J47" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="K47" s="11"/>
-      <c r="L47" s="11"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B48" s="13">
-        <v>16</v>
-      </c>
-      <c r="C48" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E48" s="11">
-        <v>21</v>
-      </c>
-      <c r="F48" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="G48" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="H48" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="I48" s="11"/>
-      <c r="J48" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="K48" s="11"/>
-      <c r="L48" s="11"/>
-    </row>
-    <row r="49" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="13">
-        <v>16</v>
-      </c>
-      <c r="C49" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="D49" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E49" s="11">
-        <v>22</v>
-      </c>
-      <c r="F49" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="G49" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="H49" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="I49" s="15"/>
-      <c r="J49" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="K49" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="L49" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B50" s="13">
-        <v>16</v>
-      </c>
-      <c r="C50" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="D50" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E50" s="11">
-        <v>23</v>
-      </c>
-      <c r="F50" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="G50" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H50" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="I50" s="16"/>
-      <c r="J50" s="11"/>
-      <c r="K50" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="L50" s="11"/>
-    </row>
-    <row r="51" spans="2:12" ht="26" x14ac:dyDescent="0.3">
-      <c r="B51" s="13">
-        <v>16</v>
-      </c>
-      <c r="C51" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="D51" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="E51" s="11">
-        <v>24</v>
-      </c>
-      <c r="F51" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="G51" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="H51" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="I51" s="11"/>
-      <c r="J51" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="K51" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="L51" s="11"/>
-    </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B52" s="13">
-        <v>16</v>
-      </c>
-      <c r="C52" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="D52" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="E52" s="11">
-        <v>25</v>
-      </c>
-      <c r="F52" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="G52" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="H52" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="I52" s="11"/>
-      <c r="J52" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="K52" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="L52" s="11"/>
-    </row>
-    <row r="53" spans="2:12" ht="26" x14ac:dyDescent="0.3">
-      <c r="B53" s="13">
-        <v>16</v>
-      </c>
-      <c r="C53" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="D53" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="E53" s="11">
-        <v>26</v>
-      </c>
-      <c r="F53" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="G53" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="H53" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="I53" s="11"/>
-      <c r="J53" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="K53" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="L53" s="11"/>
-    </row>
-    <row r="54" spans="2:12" ht="26" x14ac:dyDescent="0.3">
-      <c r="B54" s="13">
-        <v>16</v>
-      </c>
-      <c r="C54" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="D54" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="E54" s="11">
-        <v>27</v>
-      </c>
-      <c r="F54" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="G54" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="H54" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="I54" s="11"/>
-      <c r="J54" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="K54" s="11"/>
-      <c r="L54" s="11"/>
-    </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B55" s="13">
-        <v>16</v>
-      </c>
-      <c r="C55" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="D55" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="H55" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="I55" s="11"/>
-      <c r="J55" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="K55" s="11"/>
-      <c r="L55" s="11"/>
-    </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B56" s="13">
-        <v>16</v>
-      </c>
-      <c r="C56" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="D56" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="E56" s="11"/>
-      <c r="F56" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="G56" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H56" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="I56" s="11"/>
-      <c r="J56" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="K56" s="11"/>
-      <c r="L56" s="11"/>
-    </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B57" s="13">
-        <v>16</v>
-      </c>
-      <c r="C57" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="D57" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="E57" s="11"/>
-      <c r="F57" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="G57" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H57" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="I57" s="11"/>
-      <c r="J57" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="K57" s="11"/>
-      <c r="L57" s="11"/>
-    </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B58" s="13">
-        <v>17</v>
-      </c>
-      <c r="C58" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="D58" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="E58" s="11"/>
-      <c r="F58" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="G58" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="H58" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="I58" s="11"/>
-      <c r="J58" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="K58" s="11"/>
-      <c r="L58" s="11"/>
-    </row>
-    <row r="59" spans="2:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="13">
-        <v>16</v>
-      </c>
-      <c r="C59" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="D59" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="E59" s="11"/>
-      <c r="F59" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="G59" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H59" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I59" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="J59" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="K59" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="L59" s="11"/>
-    </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B60" s="13">
-        <v>16</v>
-      </c>
-      <c r="C60" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="D60" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="E60" s="11"/>
-      <c r="F60" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="G60" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H60" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I60" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="J60" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="K60" s="11"/>
-      <c r="L60" s="11"/>
-    </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B61" s="13">
-        <v>16</v>
-      </c>
-      <c r="C61" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="D61" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="E61" s="11"/>
-      <c r="F61" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="G61" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H61" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="I61" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="J61" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="K61" s="11"/>
-      <c r="L61" s="11"/>
-    </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B62" s="13">
-        <v>16</v>
-      </c>
-      <c r="C62" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="D62" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="E62" s="11"/>
-      <c r="F62" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="G62" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H62" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I62" s="11"/>
-      <c r="J62" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="K62" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="L62" s="11"/>
-    </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B63" s="13">
-        <v>16</v>
-      </c>
-      <c r="C63" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="D63" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="E63" s="11"/>
-      <c r="F63" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="G63" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H63" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I63" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="J63" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="K63" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="L63" s="11"/>
-    </row>
-    <row r="64" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B64" s="13">
-        <v>16</v>
-      </c>
-      <c r="C64" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="D64" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="E64" s="11"/>
-      <c r="F64" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="G64" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H64" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I64" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="J64" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="K64" s="11"/>
-      <c r="L64" s="11"/>
-    </row>
-    <row r="65" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="13">
-        <v>16</v>
-      </c>
-      <c r="C65" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="D65" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="E65" s="11"/>
-      <c r="F65" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="G65" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H65" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I65" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="J65" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="K65" s="11"/>
-      <c r="L65" s="11"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B66" s="13">
-        <v>16</v>
-      </c>
-      <c r="C66" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="D66" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="E66" s="11"/>
-      <c r="F66" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="G66" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H66" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I66" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="J66" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="K66" s="11"/>
-      <c r="L66" s="11"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B67" s="13">
-        <v>16</v>
-      </c>
-      <c r="C67" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="D67" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="E67" s="11"/>
-      <c r="F67" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="G67" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H67" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I67" s="11"/>
-      <c r="J67" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="K67" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="L67" s="11"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B68" s="13">
-        <v>16</v>
-      </c>
-      <c r="C68" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="D68" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="E68" s="11"/>
-      <c r="F68" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="G68" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H68" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="I68" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="J68" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="K68" s="11"/>
-      <c r="L68" s="11"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B69" s="13">
-        <v>16</v>
-      </c>
-      <c r="C69" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="D69" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="E69" s="11"/>
-      <c r="F69" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="G69" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H69" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="I69" s="11"/>
-      <c r="J69" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="K69" s="11"/>
-      <c r="L69" s="11"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B70" s="13"/>
-      <c r="C70" s="13"/>
-      <c r="D70" s="11"/>
-      <c r="E70" s="11"/>
-      <c r="F70" s="11"/>
-      <c r="G70" s="11"/>
-      <c r="H70" s="11"/>
-      <c r="I70" s="11"/>
-      <c r="J70" s="11"/>
-      <c r="K70" s="11"/>
-      <c r="L70" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
-  <conditionalFormatting sqref="J4:J10 J39:J49 J51:J1048576">
+  <conditionalFormatting sqref="J4:J10 J30:J1048576">
     <cfRule type="cellIs" dxfId="28" priority="120" operator="equal">
       <formula>"En investigación"</formula>
     </cfRule>
@@ -4358,7 +3237,7 @@
       <formula>"Acogida"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J4:J10 J39:J49 J51:J1048576">
+  <conditionalFormatting sqref="J4:J10 J30:J1048576">
     <cfRule type="cellIs" dxfId="26" priority="115" operator="equal">
       <formula>"Está"</formula>
     </cfRule>
@@ -4371,7 +3250,7 @@
       <formula>"en proceso"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J39:J49 J51:J69">
+  <conditionalFormatting sqref="J30:J37">
     <cfRule type="cellIs" dxfId="23" priority="55" operator="equal">
       <formula>"No iniciado"</formula>
     </cfRule>
@@ -4379,7 +3258,7 @@
       <formula>"En proceso"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J11:J38 G11:G69">
+  <conditionalFormatting sqref="G11:G37 J11:J29">
     <cfRule type="cellIs" dxfId="21" priority="31" operator="equal">
       <formula>"No iniciado"</formula>
     </cfRule>
